--- a/biology/Histoire de la zoologie et de la botanique/Richard_Oswald_Karl_Kräusel/Richard_Oswald_Karl_Kräusel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Oswald_Karl_Kräusel/Richard_Oswald_Karl_Kräusel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Richard_Oswald_Karl_Kr%C3%A4usel</t>
+          <t>Richard_Oswald_Karl_Kräusel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Oswald Karl Kräusel est un botaniste allemand, né le 29 août 1890 à Breslau et mort le 25 novembre 1966.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Richard_Oswald_Karl_Kr%C3%A4usel</t>
+          <t>Richard_Oswald_Karl_Kräusel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Carl Friedrich Wilhelm Kräusel et de Katharina née Barthl. Il obtient un doctorat de philosophie à l’université de Breslau en 1913. Il se marie le 3 juin 1915 avec Johanna Mathilde Luise Wellenstein dont il aura trois enfants. Il est professeur à l’|École supérieure Goethe de Francfort-sur-le-Main de 1920 à 1921, puis à la faculté de la ville à partir de 1921 et enseigne la paléobotanique à partir de 1928. De 1938 à 1946, il conservateur du département de paléobotanique à l’Institut de recherche Senckenberg. Il obtient un doctorat honoris causa en 1963 à l’université de Durham.
 Il est notamment l’auteur de Paläobotanische Untersuchungsmethoden (1928), Versunkene Floren (1950), il participe à Mitteleuropäische Planzenwelt (1956-1960) d’Hermann Merxmüller (1920-1988), ainsi que de nombreux articles sur les plantes fossiles notamment les flores du tertiaire et du mésozoïque.
